--- a/Allocations.xlsx
+++ b/Allocations.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>ITC.NS</t>
-  </si>
-  <si>
-    <t>NTPC.NS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Invested</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Expected Return</t>
+  </si>
+  <si>
+    <t>Expected Volatility</t>
+  </si>
+  <si>
+    <t>Expected Sharpe Ratio</t>
+  </si>
+  <si>
+    <t>TCS.NS</t>
   </si>
 </sst>
 </file>
@@ -377,26 +389,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>79</v>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>32115.5</v>
+      </c>
+      <c r="C2">
+        <v>1884.5</v>
+      </c>
+      <c r="D2">
+        <v>-0.13</v>
+      </c>
+      <c r="E2">
+        <v>0.23</v>
+      </c>
+      <c r="F2">
+        <v>-0.65</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Allocations.xlsx
+++ b/Allocations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Invested</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Expected Sharpe Ratio</t>
+  </si>
+  <si>
+    <t>INFY.NS</t>
+  </si>
+  <si>
+    <t>TATASTEEL.NS</t>
   </si>
   <si>
     <t>TCS.NS</t>
@@ -389,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,28 +420,40 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32115.5</v>
+        <v>37189.75</v>
       </c>
       <c r="C2">
-        <v>1884.5</v>
+        <v>2810.25</v>
       </c>
       <c r="D2">
-        <v>-0.13</v>
+        <v>0.17</v>
       </c>
       <c r="E2">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="F2">
-        <v>-0.65</v>
+        <v>0.83</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Allocations.xlsx
+++ b/Allocations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Invested</t>
   </si>
@@ -31,13 +31,19 @@
     <t>Expected Sharpe Ratio</t>
   </si>
   <si>
-    <t>INFY.NS</t>
-  </si>
-  <si>
-    <t>TATASTEEL.NS</t>
-  </si>
-  <si>
-    <t>TCS.NS</t>
+    <t>BANKBARODA.NS</t>
+  </si>
+  <si>
+    <t>COALINDIA.NS</t>
+  </si>
+  <si>
+    <t>FEDERALBNK.NS</t>
+  </si>
+  <si>
+    <t>ITC.NS</t>
+  </si>
+  <si>
+    <t>NTPC.NS</t>
   </si>
 </sst>
 </file>
@@ -395,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,34 +432,46 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>37189.75</v>
+        <v>33632.3</v>
       </c>
       <c r="C2">
-        <v>2810.25</v>
+        <v>367.7</v>
       </c>
       <c r="D2">
-        <v>0.17</v>
+        <v>0.49</v>
       </c>
       <c r="E2">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="F2">
-        <v>0.83</v>
+        <v>2.15</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="J2">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
